--- a/tasks/EmployeeSystem/zero_hour_consecutive_days.xlsx
+++ b/tasks/EmployeeSystem/zero_hour_consecutive_days.xlsx
@@ -266,9 +266,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.01171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.82421875" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="23.6171875" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="10.8515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.71875" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="23.47265625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
